--- a/our_templates/Our_Template_Plasma R.xlsx
+++ b/our_templates/Our_Template_Plasma R.xlsx
@@ -1486,8 +1486,8 @@
   </sheetPr>
   <dimension ref="A1:N300"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A281" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B300"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
